--- a/archivos/EVA y EBIDTA.xlsx
+++ b/archivos/EVA y EBIDTA.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Universidad\5to Cuatrimestre\Costos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Documentos\Universidad\8vo Cuatrimestre\Metodología de la Investigación\TFG\GAP---Gestion-Accesible-para-PyMEs\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="19515" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="19515" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
-    <sheet name="Actividad Indicadores" sheetId="2" r:id="rId2"/>
+    <sheet name="Indicadores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
-  <si>
-    <t>Unidad 5 Costos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Métodos de Fijación de Precios</t>
   </si>
@@ -211,6 +208,12 @@
   </si>
   <si>
     <t>Datos:</t>
+  </si>
+  <si>
+    <t>Costos:</t>
+  </si>
+  <si>
+    <t>*Los datos son ejemplo de visualización</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,88 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
@@ -516,94 +600,13 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,11 +619,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
@@ -639,61 +641,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="5" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -729,7 +729,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,20 +743,44 @@
     <xf numFmtId="44" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -764,62 +788,52 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="5" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1107,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,321 +1136,354 @@
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="102" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="4"/>
+      <c r="F4" s="99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+    </row>
+    <row r="5" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="F5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="22">
+        <v>700000</v>
+      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="F7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="28">
+        <v>3500000</v>
+      </c>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="F5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="25">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="21">
-        <v>10</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="F7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="31">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="7">
+      <c r="B8" s="19"/>
+      <c r="C8" s="6">
         <f>B7*B10</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="9">
+      <c r="F8" s="7"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="8">
         <f>B7*C12</f>
         <v>3000</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19">
+        <v>250</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="F11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="H11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22">
-        <v>250</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="F11" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="9">
+      <c r="B12" s="22"/>
+      <c r="C12" s="8">
         <f>B10+(B11*B10)</f>
         <v>300</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="30">
         <f>G6</f>
         <v>700000</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="31">
         <f>G5</f>
         <v>0.1</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="32">
         <f>G7</f>
         <v>3500000</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="37">
         <f>F12-(G12*H12)</f>
         <v>350000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="10">
         <f>C12-B10</f>
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="13">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="12">
         <f>C9-C8</f>
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F15" s="2" t="s">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F15" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="G16" s="80"/>
+      <c r="H16" s="50">
+        <v>534750</v>
+      </c>
+      <c r="J16" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="101"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="8">
+        <v>-238430</v>
+      </c>
+      <c r="J17" s="38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="53">
-        <v>534750</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="9">
-        <v>-238430</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="46">
+      <c r="K17" s="43">
         <v>296320</v>
       </c>
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="11">
+      <c r="F18" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="10">
         <f>SUM(H16:H17)</f>
         <v>296320</v>
       </c>
-      <c r="J18" s="44" t="str">
+      <c r="J18" s="41" t="str">
         <f>"-Gastos ADM"</f>
         <v>-Gastos ADM</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="39">
         <v>-54000</v>
       </c>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="9">
+      <c r="F19" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="8">
         <v>-54000</v>
       </c>
-      <c r="J19" s="45" t="str">
+      <c r="J19" s="42" t="str">
         <f>"-Gastos Ventas"</f>
         <v>-Gastos Ventas</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="40">
         <v>-98750</v>
       </c>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="9">
+      <c r="F20" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="8">
         <v>-98750</v>
       </c>
-      <c r="J20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="52">
+      <c r="J20" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="49">
         <f>SUM(K17:K19)</f>
         <v>143570</v>
       </c>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="54">
+      <c r="F21" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="86"/>
+      <c r="H21" s="51">
         <f>SUM(H18:H20)</f>
         <v>143570</v>
       </c>
-      <c r="J21" s="47" t="str">
+      <c r="J21" s="44" t="str">
         <f>"+Depr y Amortizac"</f>
         <v>+Depr y Amortizac</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="45">
         <v>15500</v>
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="9">
+      <c r="F22" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="8">
         <v>49400</v>
       </c>
-      <c r="J22" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="50">
+      <c r="J22" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="47">
         <f>SUM(K20:K21)</f>
         <v>159070</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="8">
+        <v>-32900</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="9">
-        <v>-32900</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="54">
+      <c r="G24" s="86"/>
+      <c r="H24" s="51">
         <f>SUM(H21:H23)</f>
         <v>160070</v>
       </c>
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="H25" s="8">
+        <v>-21450</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="9">
-        <v>-21450</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="85"/>
-      <c r="H26" s="55">
+      <c r="G26" s="78"/>
+      <c r="H26" s="52">
         <f>SUM(H24:H25)</f>
         <v>138620</v>
       </c>
@@ -1457,7 +1504,7 @@
     <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1465,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1521,7 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="70" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
@@ -1483,504 +1530,532 @@
   <sheetData>
     <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="53">
+        <v>2000000</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="100" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="56">
-        <v>2000000</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="9">
+      <c r="C6" s="82"/>
+      <c r="D6" s="8">
         <v>-1200000</v>
       </c>
-      <c r="G6" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="G6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="27">
         <v>0.08</v>
       </c>
-      <c r="I6" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="68">
+      <c r="I6" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="65">
         <v>1500000</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="11">
+      <c r="B7" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="10">
         <f>SUM(D5:D6)</f>
         <v>800000</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="25">
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="22">
         <f>I9</f>
         <v>230000</v>
       </c>
-      <c r="I7" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="69">
+      <c r="I7" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="66">
         <v>700000</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="9">
+      <c r="B8" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="8">
         <v>-300000</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="22">
         <v>800000</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="9"/>
-      <c r="G9" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65">
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="8"/>
+      <c r="G9" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62">
         <f>D21</f>
         <v>230000</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="8"/>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="54">
+      <c r="B12" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="51">
         <f>SUM(D7:D11)</f>
         <v>500000</v>
       </c>
-      <c r="G12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="39" t="s">
+      <c r="G12" s="33" t="s">
         <v>14</v>
       </c>
+      <c r="H12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="9">
+      <c r="B13" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="8">
         <v>-100000</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="59">
         <f>H7</f>
         <v>230000</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="31">
         <f>H6</f>
         <v>0.08</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="32">
         <f>H8</f>
         <v>800000</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="37">
         <f>G13-(H13*I13)</f>
         <v>166000</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="9">
+      <c r="B14" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="8">
         <f>-50000</f>
         <v>-50000</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="8"/>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="54">
+      <c r="B17" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="51">
         <f>SUM(D12:D16)</f>
         <v>350000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="9">
+      <c r="B18" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="8">
         <v>-120000</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="46">
+      <c r="G18" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="43">
         <f>D7</f>
         <v>800000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="9"/>
-      <c r="G19" s="44" t="str">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="8"/>
+      <c r="G19" s="41" t="str">
         <f>B8</f>
         <v>Gastos Operativos</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="39">
         <f>D8</f>
         <v>-300000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="9"/>
-      <c r="G20" s="45" t="str">
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="8"/>
+      <c r="G20" s="42" t="str">
         <f>B13</f>
         <v>Depreciación</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="40">
         <f>D13</f>
         <v>-100000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="55">
+      <c r="B21" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="52">
         <f>SUM(D17:D20)</f>
         <v>230000</v>
       </c>
-      <c r="G21" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="52">
+      <c r="G21" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="49">
         <f>SUM(H18:H20)</f>
         <v>400000</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="45" t="str">
+      <c r="G22" s="42" t="str">
         <f>B13</f>
         <v>Depreciación</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="40">
         <f>-D13</f>
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="45">
+      <c r="G23" s="42">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="40">
         <f>D15</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G24" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="50">
+      <c r="G24" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="47">
         <f>H21+H22</f>
         <v>500000</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="70" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="71">
+      <c r="C27" s="82"/>
+      <c r="D27" s="68">
         <f>D12-D14</f>
         <v>550000</v>
       </c>
-      <c r="E27" s="91">
+      <c r="E27" s="92">
         <f>D27/D28</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="93" t="s">
+      <c r="F27" s="72"/>
+      <c r="G27" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="95"/>
-      <c r="J27" s="79">
+      <c r="I27" s="96"/>
+      <c r="J27" s="76">
         <f>D21</f>
         <v>230000</v>
       </c>
-      <c r="K27" s="91">
+      <c r="K27" s="92">
         <f>J27/J28</f>
         <v>0.115</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="72">
+      <c r="A28" s="91"/>
+      <c r="B28" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="69">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="35">
+      <c r="E28" s="93"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="94"/>
+      <c r="J28" s="32">
         <f>D5</f>
         <v>2000000</v>
       </c>
-      <c r="K28" s="92"/>
+      <c r="K28" s="93"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="95" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="79">
+      <c r="H30" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="96"/>
+      <c r="J30" s="76">
         <f>D5</f>
         <v>2000000</v>
       </c>
-      <c r="K30" s="91">
+      <c r="K30" s="92">
         <f>J30/J31</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="71">
+      <c r="A31" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="68">
         <f>D21</f>
         <v>230000</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="92">
         <f>D31/D32</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="96"/>
-      <c r="J31" s="35">
+      <c r="F31" s="72"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="94"/>
+      <c r="J31" s="32">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="K31" s="92"/>
+      <c r="K31" s="93"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="72">
+      <c r="A32" s="91"/>
+      <c r="B32" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="94"/>
+      <c r="D32" s="69">
         <f>H8</f>
         <v>800000</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="75"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="72"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G33" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="95"/>
-      <c r="J33" s="79">
+      <c r="G33" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="96"/>
+      <c r="J33" s="76">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="K33" s="91">
+      <c r="K33" s="92">
         <f>J33/J34</f>
         <v>1.875</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="96"/>
-      <c r="J34" s="35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="94"/>
+      <c r="J34" s="32">
         <f>H8</f>
         <v>800000</v>
       </c>
-      <c r="K34" s="92"/>
+      <c r="K34" s="93"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="71">
+      <c r="A35" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="68">
         <f>D21</f>
         <v>230000</v>
       </c>
-      <c r="E35" s="91">
+      <c r="E35" s="92">
         <f>D35/D36</f>
         <v>0.15333333333333332</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="72"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
-      <c r="B36" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="72">
+      <c r="A36" s="91"/>
+      <c r="B36" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="94"/>
+      <c r="D36" s="69">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="76">
+      <c r="E36" s="93"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="73">
         <f>K27</f>
         <v>0.115</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="73">
         <f>K30</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J36" s="76">
+      <c r="J36" s="73">
         <f>K33</f>
         <v>1.875</v>
       </c>
-      <c r="K36" s="78">
+      <c r="K36" s="75">
         <f>H36*I36*J36</f>
         <v>0.28749999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -1992,34 +2067,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="H34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/archivos/EVA y EBIDTA.xlsx
+++ b/archivos/EVA y EBIDTA.xlsx
@@ -619,7 +619,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,31 +644,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,17 +665,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -708,10 +684,8 @@
     <xf numFmtId="44" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -725,97 +699,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -823,6 +723,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="5" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -832,8 +740,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="5" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1122,7 +1188,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,43 +1213,43 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4"/>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="F5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="87">
         <v>0.1</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -1196,48 +1262,48 @@
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="84">
         <v>700000</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="80">
         <v>10</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="88">
         <v>3500000</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="6">
         <f>B7*B10</f>
         <v>2500</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="8">
         <f>B7*C12</f>
         <v>3000</v>
@@ -1245,41 +1311,41 @@
       <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="81">
         <v>250</v>
       </c>
       <c r="C10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="83">
         <v>0.2</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="F11" s="33" t="s">
+      <c r="C11" s="58"/>
+      <c r="F11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1287,24 +1353,24 @@
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="8">
         <f>B10+(B11*B10)</f>
         <v>300</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="89">
         <f>G6</f>
         <v>700000</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="90">
         <f>G5</f>
         <v>0.1</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="91">
         <f>G7</f>
         <v>3500000</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="25">
         <f>F12-(G12*H12)</f>
         <v>350000</v>
       </c>
@@ -1313,7 +1379,7 @@
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="10">
         <f>C12-B10</f>
         <v>50</v>
@@ -1323,172 +1389,173 @@
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="12">
         <f>C9-C8</f>
         <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="98" t="s">
+      <c r="J15" s="52" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="50">
+      <c r="G16" s="65"/>
+      <c r="H16" s="96">
         <v>534750</v>
       </c>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="101"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="8">
+      <c r="G17" s="67"/>
+      <c r="H17" s="97">
         <v>-238430</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="92">
         <v>296320</v>
       </c>
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="84"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="10">
         <f>SUM(H16:H17)</f>
         <v>296320</v>
       </c>
-      <c r="J18" s="41" t="str">
+      <c r="J18" s="27" t="str">
         <f>"-Gastos ADM"</f>
         <v>-Gastos ADM</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="93">
         <v>-54000</v>
       </c>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="8">
+      <c r="G19" s="67"/>
+      <c r="H19" s="97">
         <v>-54000</v>
       </c>
-      <c r="J19" s="42" t="str">
+      <c r="J19" s="28" t="str">
         <f>"-Gastos Ventas"</f>
         <v>-Gastos Ventas</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="94">
         <v>-98750</v>
       </c>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="8">
+      <c r="G20" s="67"/>
+      <c r="H20" s="97">
         <v>-98750</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="33">
         <f>SUM(K17:K19)</f>
         <v>143570</v>
       </c>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="51">
+      <c r="G21" s="71"/>
+      <c r="H21" s="34">
         <f>SUM(H18:H20)</f>
         <v>143570</v>
       </c>
-      <c r="J21" s="44" t="str">
+      <c r="J21" s="29" t="str">
         <f>"+Depr y Amortizac"</f>
         <v>+Depr y Amortizac</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="95">
         <v>15500</v>
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="8">
+      <c r="G22" s="67"/>
+      <c r="H22" s="97">
         <v>49400</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="31">
         <f>SUM(K20:K21)</f>
         <v>159070</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="8">
+      <c r="G23" s="67"/>
+      <c r="H23" s="97">
         <v>-32900</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="85" t="s">
+      <c r="F24" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="51">
+      <c r="G24" s="71"/>
+      <c r="H24" s="34">
         <f>SUM(H21:H23)</f>
         <v>160070</v>
       </c>
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="8">
+      <c r="G25" s="67"/>
+      <c r="H25" s="97">
         <v>-21450</v>
       </c>
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="77" t="s">
+      <c r="F26" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="52">
+      <c r="G26" s="60"/>
+      <c r="H26" s="35">
         <f>SUM(H24:H25)</f>
         <v>138620</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="eNt6nQgUGQa4yYsao47GGWWvrPlGyUjwUkTHBRzloBIrNG786OzE6lIGte3BbfaHos9dV5fCibyTjI+TcJvJ0w==" saltValue="QunTnoYFhVr3o7utQfCbcw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="A5:C5"/>
@@ -1513,7 +1580,7 @@
   <dimension ref="A4:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1588,7 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="46" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
@@ -1537,11 +1604,11 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="53">
+      <c r="C5" s="79"/>
+      <c r="D5" s="102">
         <v>2000000</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1549,31 +1616,31 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="8">
+      <c r="C6" s="106"/>
+      <c r="D6" s="97">
         <v>-1200000</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="87">
         <v>0.08</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="98">
         <v>1500000</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="10">
         <f>SUM(D5:D6)</f>
         <v>800000</v>
@@ -1581,134 +1648,134 @@
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="84">
         <f>I9</f>
         <v>230000</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="99">
         <v>700000</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="8">
+      <c r="C8" s="106"/>
+      <c r="D8" s="97">
         <v>-300000</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="84">
         <v>800000</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="8"/>
-      <c r="G9" s="60" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="97"/>
+      <c r="G9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62">
+      <c r="H9" s="42"/>
+      <c r="I9" s="101">
         <f>D21</f>
         <v>230000</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="97"/>
       <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="97"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="51">
+      <c r="C12" s="71"/>
+      <c r="D12" s="34">
         <f>SUM(D7:D11)</f>
         <v>500000</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="8">
+      <c r="C13" s="106"/>
+      <c r="D13" s="97">
         <v>-100000</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="100">
         <f>H7</f>
         <v>230000</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="90">
         <f>H6</f>
         <v>0.08</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="91">
         <f>H8</f>
         <v>800000</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="25">
         <f>G13-(H13*I13)</f>
         <v>166000</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="8">
+      <c r="C14" s="106"/>
+      <c r="D14" s="97">
         <f>-50000</f>
         <v>-50000</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="97"/>
     </row>
     <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="97"/>
       <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="51">
+      <c r="C17" s="37"/>
+      <c r="D17" s="34">
         <f>SUM(D12:D16)</f>
         <v>350000</v>
       </c>
@@ -1717,317 +1784,345 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="8">
+      <c r="C18" s="108"/>
+      <c r="D18" s="97">
         <v>-120000</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="92">
         <f>D7</f>
         <v>800000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="8"/>
-      <c r="G19" s="41" t="str">
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="97"/>
+      <c r="G19" s="104" t="str">
         <f>B8</f>
         <v>Gastos Operativos</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="93">
         <f>D8</f>
         <v>-300000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="8"/>
-      <c r="G20" s="42" t="str">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="97"/>
+      <c r="G20" s="103" t="str">
         <f>B13</f>
         <v>Depreciación</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="94">
         <f>D13</f>
         <v>-100000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="52">
+      <c r="C21" s="39"/>
+      <c r="D21" s="35">
         <f>SUM(D17:D20)</f>
         <v>230000</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="33">
         <f>SUM(H18:H20)</f>
         <v>400000</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="42" t="str">
+      <c r="G22" s="103" t="str">
         <f>B13</f>
         <v>Depreciación</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="94">
         <f>-D13</f>
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="42">
+      <c r="G23" s="103">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="94">
         <f>D15</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="31">
         <f>H21+H22</f>
         <v>500000</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="71"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="68">
+      <c r="C27" s="67"/>
+      <c r="D27" s="109">
         <f>D12-D14</f>
         <v>550000</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="75">
         <f>D27/D28</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="95" t="s">
+      <c r="F27" s="48"/>
+      <c r="G27" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="96"/>
-      <c r="J27" s="76">
+      <c r="I27" s="74"/>
+      <c r="J27" s="112">
         <f>D21</f>
         <v>230000</v>
       </c>
-      <c r="K27" s="92">
+      <c r="K27" s="75">
         <f>J27/J28</f>
         <v>0.115</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="94" t="s">
+      <c r="A28" s="73"/>
+      <c r="B28" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="69">
+      <c r="C28" s="77"/>
+      <c r="D28" s="110">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="94" t="s">
+      <c r="E28" s="76"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="94"/>
-      <c r="J28" s="32">
+      <c r="I28" s="77"/>
+      <c r="J28" s="91">
         <f>D5</f>
         <v>2000000</v>
       </c>
-      <c r="K28" s="93"/>
+      <c r="K28" s="76"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="95" t="s">
+      <c r="F30" s="47"/>
+      <c r="G30" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="96" t="s">
+      <c r="H30" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="76">
+      <c r="I30" s="74"/>
+      <c r="J30" s="112">
         <f>D5</f>
         <v>2000000</v>
       </c>
-      <c r="K30" s="92">
+      <c r="K30" s="75">
         <f>J30/J31</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="68">
+      <c r="C31" s="67"/>
+      <c r="D31" s="109">
         <f>D21</f>
         <v>230000</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="75">
         <f>D31/D32</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="94" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="94"/>
-      <c r="J31" s="32">
+      <c r="I31" s="77"/>
+      <c r="J31" s="91">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="K31" s="93"/>
+      <c r="K31" s="76"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="94" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="69">
+      <c r="C32" s="77"/>
+      <c r="D32" s="110">
         <f>H8</f>
         <v>800000</v>
       </c>
-      <c r="E32" s="93"/>
-      <c r="F32" s="72"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G33" s="95" t="s">
+      <c r="G33" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="H33" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="76">
+      <c r="I33" s="74"/>
+      <c r="J33" s="112">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="K33" s="92">
+      <c r="K33" s="75">
         <f>J33/J34</f>
         <v>1.875</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="94" t="s">
+      <c r="F34" s="47"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="32">
+      <c r="I34" s="77"/>
+      <c r="J34" s="91">
         <f>H8</f>
         <v>800000</v>
       </c>
-      <c r="K34" s="93"/>
+      <c r="K34" s="76"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="68">
+      <c r="C35" s="67"/>
+      <c r="D35" s="109">
         <f>D21</f>
         <v>230000</v>
       </c>
-      <c r="E35" s="92">
+      <c r="E35" s="75">
         <f>D35/D36</f>
         <v>0.15333333333333332</v>
       </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="69">
+      <c r="C36" s="77"/>
+      <c r="D36" s="110">
         <f>J6</f>
         <v>1500000</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="74" t="s">
+      <c r="E36" s="76"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="111">
         <f>K27</f>
         <v>0.115</v>
       </c>
-      <c r="I36" s="73">
+      <c r="I36" s="111">
         <f>K30</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J36" s="73">
+      <c r="J36" s="111">
         <f>K33</f>
         <v>1.875</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="50">
         <f>H36*I36*J36</f>
         <v>0.28749999999999998</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="OBcJdLjIi8sJMZwtVyXQq4U1mD8M3JK3nc70jQjG9PGbyspg7WVi7pfFtOqYQj2EHCTqmtttluwBb5Xxn0KmYA==" saltValue="1T24pkA8RhLFwJCjAmz40Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="39">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:K34"/>
@@ -2040,33 +2135,6 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
